--- a/medicine/Psychotrope/Blow_(film)/Blow_(film).xlsx
+++ b/medicine/Psychotrope/Blow_(film)/Blow_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blow ou Cartel au Québec est un film américain réalisé par Ted Demme, sorti en 2001. Ce film s'inspire de la vie de George Jung, trafiquant de drogue et acteur majeur dans l'importation de cocaïne aux États-Unis dans les années 1970-1980.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George Jung, un vendeur de drogue (marijuana), se lie d'amitié en prison avec un Colombien qui lui explique le trafic de cocaïne et lui fait rencontrer Pablo Escobar, le plus grand narcotrafiquant du monde, dont il devient le lieutenant.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Blow
@@ -557,7 +573,7 @@
 Production : Ted Demme, Denis Leary, Joel Stillerman, Michael De Luca et Georgia Kacandes
 Sociétés de production : Apostle, Avery Pix, New Line Cinema et Spanky Pictures
 Distribution : New Line Cinema (États-Unis), Metropolitan Filmexport (France)
-Budget : entre 30[1] et 53 millions de dollars[2]
+Budget : entre 30 et 53 millions de dollars
 Pays d'origine :  États-Unis
 Format : Couleurs - 2,35:1 - 35 mm - son DTS / Dolby Digital / SDDS
 Genre : Biopic, drame et film de gangsters
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Johnny Depp (VF : Bruno Choel, VQ : Gilbert Lachance) : George Jung
 Penélope Cruz (VF : Ethel Houbiers, VQ : Claudia Ferri) : Mirtha Jung
@@ -645,13 +663,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Attribution des rôles
-Pour préparer son rôle, Johnny Depp est allé rendre visite au véritable George Jung, alors incarcéré au Fort Dix Federal Correctional Institution (en), dans le New Jersey[3].
-Un rôle a été proposé à John Leguizamo, mais l'acteur était pris par le tournage de Moulin Rouge (2001). Denis Leary, ami de Ted Demme, devait initialement incarner Derek Foreal[3].
-Ce film marque les débuts d'Emma Roberts, fille d'Eric Roberts et nièce de Julia Roberts[3].
-Tournage
-Le tournage a lieu de février à mai 2000. Il se déroule à Acapulco, Chicago, Long Beach, Los Angeles (Bel Air, The Ambassador Hotel), Manhattan Beach, Mexico, Ontario, Palmdale, Pasadena et Whittier[4].
-Lors des scènes de consommation cocaïne, les acteurs sniffaient du lait en poudre[réf. nécessaire].
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour préparer son rôle, Johnny Depp est allé rendre visite au véritable George Jung, alors incarcéré au Fort Dix Federal Correctional Institution (en), dans le New Jersey.
+Un rôle a été proposé à John Leguizamo, mais l'acteur était pris par le tournage de Moulin Rouge (2001). Denis Leary, ami de Ted Demme, devait initialement incarner Derek Foreal.
+Ce film marque les débuts d'Emma Roberts, fille d'Eric Roberts et nièce de Julia Roberts.
 </t>
         </is>
       </c>
@@ -677,10 +697,50 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a lieu de février à mai 2000. Il se déroule à Acapulco, Chicago, Long Beach, Los Angeles (Bel Air, The Ambassador Hotel), Manhattan Beach, Mexico, Ontario, Palmdale, Pasadena et Whittier.
+Lors des scènes de consommation cocaïne, les acteurs sniffaient du lait en poudre[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blow_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blow_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>La musique du film est composée par Graeme Revell. Cependant, l'album commercialisé ne contient que des chansons non originales présentes dans le film.
 Autres chansons présentes dans le film
@@ -706,41 +766,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Blow_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Blow_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Critique
-Blow reçoit un accueil critique mitigé, recueillant 55 % de critiques positives, avec une note moyenne de 5,8⁄10 et sur la base de 136 critiques collectées, sur le site agrégateur de critiques Rotten Tomatoes[6]. Sur Metacritic, il obtient un score de 52⁄100 sur la base de 34 critiques collectées[7].
-Malgré cette première réception critique assez partagée, le film a su acquérir au fil des années, le statut de "film culte" et est aujourd'hui très apprécié du public comme des cinéphiles.
-Box-office
-Le film a connu un certain succès commercial, rapportant environ 83 282 296 $ au box-office mondial, dont 52 990 775 $ en Amérique du Nord, pour un budget de 53 000 000 $[2]. En France, il attire 309 753 spectateurs en salles[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -762,17 +787,20 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Récompenses
-Prix Prism du meilleur film en 2002.
-Nominations
-Nomination au Globe de Cristal du meilleur film, lors du Festival international du film de Karlovy Vary 2001.
-Nomination au prix de la meilleure révélation féminine pour Penélope Cruz, lors des MTV Movie Awards 2002.
-Nomination au prix de la pire actrice pour Penélope Cruz, lors des Razzie Awards 2002.</t>
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Blow reçoit un accueil critique mitigé, recueillant 55 % de critiques positives, avec une note moyenne de 5,8⁄10 et sur la base de 136 critiques collectées, sur le site agrégateur de critiques Rotten Tomatoes. Sur Metacritic, il obtient un score de 52⁄100 sur la base de 34 critiques collectées.
+Malgré cette première réception critique assez partagée, le film a su acquérir au fil des années, le statut de "film culte" et est aujourd'hui très apprécié du public comme des cinéphiles.
+</t>
         </is>
       </c>
     </row>
@@ -797,10 +825,123 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a connu un certain succès commercial, rapportant environ 83 282 296 $ au box-office mondial, dont 52 990 775 $ en Amérique du Nord, pour un budget de 53 000 000 $. En France, il attire 309 753 spectateurs en salles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Blow_(film)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blow_(film)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Prix Prism du meilleur film en 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Blow_(film)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blow_(film)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Nomination au Globe de Cristal du meilleur film, lors du Festival international du film de Karlovy Vary 2001.
+Nomination au prix de la meilleure révélation féminine pour Penélope Cruz, lors des MTV Movie Awards 2002.
+Nomination au prix de la pire actrice pour Penélope Cruz, lors des Razzie Awards 2002.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Blow_(film)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blow_(film)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Clins d’œil</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Tandis qu'il partage une cellule en prison avec Diego, on peut voir George en train de lire Hells Angels, un livre écrit par Hunter S. Thompson, également auteur du Las Vegas Parano dans lequel Johnny Depp campait un journaliste déjanté, et dont les psychotropes étaient déjà l'un des thèmes principaux. Johnny Depp était un ami de l'auteur.
 Dans la salle de tribunal, quand George tente de convaincre le juge qu'il est innocent, ses paroles sont issues des chansons It Ain't Me Babe de Bob Dylan et Pretty Boy Floyd de Woody Guthrie.
